--- a/工作安排.xlsx
+++ b/工作安排.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="39">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
     <t>星期二</t>
   </si>
   <si>
-    <t>星期二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>星期三</t>
   </si>
   <si>
@@ -76,14 +72,6 @@
   </si>
   <si>
     <t>星期一</t>
-  </si>
-  <si>
-    <t>搭建环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉业务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>考试</t>
@@ -96,10 +84,6 @@
   </si>
   <si>
     <t>软件项目管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开题报告提交及答辩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -202,12 +186,60 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>上班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放假回家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六级考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,8 +295,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,8 +323,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -434,11 +486,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -513,6 +576,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -795,13 +873,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G187"/>
+  <dimension ref="A1:G179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.625" style="14" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="15" customWidth="1"/>
@@ -813,7 +891,7 @@
     <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="24.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,63 +914,77 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="24.95" customHeight="1">
       <c r="A2" s="8">
-        <v>43438</v>
+        <v>43446</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="24.95" customHeight="1">
       <c r="A3" s="8">
-        <v>43439</v>
+        <v>43447</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>17</v>
+      <c r="C3" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="24.95" customHeight="1">
       <c r="A4" s="8">
-        <v>43440</v>
+        <v>43448</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="C4" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="F4" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="24.95" customHeight="1">
       <c r="A5" s="8">
-        <v>43441</v>
+        <v>43449</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="21" t="s">
-        <v>21</v>
+      <c r="C5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="24.95" customHeight="1">
       <c r="A6" s="8">
-        <v>43442</v>
+        <v>43450</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -901,79 +993,87 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="24.95" customHeight="1">
       <c r="A7" s="8">
-        <v>43443</v>
+        <v>43451</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="C7" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="F7" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="24.95" customHeight="1">
       <c r="A8" s="8">
-        <v>43444</v>
+        <v>43452</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="F8" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="24.95" customHeight="1">
       <c r="A9" s="8">
-        <v>43445</v>
+        <v>43453</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="16"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="F9" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="24.95" customHeight="1">
       <c r="A10" s="8">
-        <v>43446</v>
+        <v>43454</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="16"/>
       <c r="F10" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="24.95" customHeight="1">
       <c r="A11" s="8">
-        <v>43447</v>
+        <v>43455</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="C11" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="F11" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="24.95" customHeight="1">
       <c r="A12" s="8">
-        <v>43448</v>
+        <v>43456</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="16"/>
       <c r="F12" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="24.95" customHeight="1">
       <c r="A13" s="8">
-        <v>43449</v>
+        <v>43457</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>13</v>
@@ -982,398 +1082,423 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="24.95" customHeight="1">
       <c r="A14" s="8">
-        <v>43450</v>
+        <v>43458</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="C14" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="F14" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="24.95" customHeight="1">
       <c r="A15" s="8">
-        <v>43451</v>
+        <v>43459</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="F15" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="24.95" customHeight="1">
       <c r="A16" s="8">
-        <v>43452</v>
+        <v>43460</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="16"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="F16" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="24.95" customHeight="1">
       <c r="A17" s="8">
-        <v>43453</v>
+        <v>43461</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="16"/>
       <c r="F17" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="24.95" customHeight="1">
       <c r="A18" s="8">
-        <v>43454</v>
+        <v>43462</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="C18" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="F18" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="42.75">
       <c r="A19" s="8">
-        <v>43455</v>
+        <v>43463</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="16"/>
+      <c r="C19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="F19" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>43456</v>
-      </c>
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="1:7" ht="28.5">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="171">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="71.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="55.5" customHeight="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="36.75" customHeight="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="105" customHeight="1">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="24" customHeight="1">
+      <c r="A26" s="17">
+        <v>43464</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <v>43457</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="D26" s="10"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A27" s="8">
+        <v>43465</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <v>43458</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="C27" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A28" s="8">
+        <v>43466</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A29" s="8">
+        <v>43467</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="23.25" customHeight="1">
+      <c r="A30" s="8">
+        <v>43468</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A31" s="8">
+        <v>43469</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A32" s="8">
+        <v>43470</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="54" customHeight="1">
+      <c r="A33" s="8">
+        <v>43471</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="F22" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>43459</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="D33" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A34" s="8">
+        <v>43472</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="24.95" customHeight="1">
+      <c r="A35" s="8">
+        <v>43473</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="F23" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>43460</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="F24" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <v>43461</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
-        <v>43462</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="F26" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
-        <v>43463</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="171" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17">
-        <v>43464</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
-        <v>43465</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="16"/>
+      <c r="C35" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="F35" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="24.95" customHeight="1">
       <c r="A36" s="8">
-        <v>43466</v>
+        <v>43474</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="16"/>
+        <v>9</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="F36" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="49.5" customHeight="1">
       <c r="A37" s="8">
-        <v>43467</v>
+        <v>43475</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="16"/>
+      <c r="C37" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="23"/>
       <c r="F37" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="24.95" customHeight="1">
       <c r="A38" s="8">
-        <v>43468</v>
+        <v>43476</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="C38" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="F38" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="24.95" customHeight="1">
       <c r="A39" s="8">
-        <v>43469</v>
+        <v>43477</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="16"/>
       <c r="F39" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="24.95" customHeight="1">
       <c r="A40" s="8">
-        <v>43470</v>
+        <v>43478</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="C40" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="28"/>
       <c r="F40" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="24.95" customHeight="1">
       <c r="A41" s="8">
-        <v>43471</v>
+        <v>43479</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="11"/>
       <c r="F41" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="24.95" customHeight="1">
       <c r="A42" s="8">
-        <v>43472</v>
+        <v>43480</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="16"/>
+        <v>8</v>
+      </c>
       <c r="F42" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="24.95" customHeight="1">
       <c r="A43" s="8">
-        <v>43473</v>
+        <v>43481</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="16"/>
+        <v>9</v>
+      </c>
       <c r="F43" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="24.95" customHeight="1">
       <c r="A44" s="8">
-        <v>43474</v>
+        <v>43482</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="16"/>
       <c r="F44" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="24.95" customHeight="1">
       <c r="A45" s="8">
-        <v>43475</v>
+        <v>43483</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="23"/>
       <c r="F45" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="24.95" customHeight="1">
       <c r="A46" s="8">
-        <v>43476</v>
+        <v>43484</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="16"/>
       <c r="F46" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="24.95" customHeight="1">
       <c r="A47" s="8">
-        <v>43477</v>
+        <v>43485</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>13</v>
@@ -1382,9 +1507,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="24.95" customHeight="1">
       <c r="A48" s="8">
-        <v>43478</v>
+        <v>43486</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>14</v>
@@ -1393,31 +1518,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="24.95" customHeight="1">
       <c r="A49" s="8">
-        <v>43479</v>
+        <v>43487</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="24.95" customHeight="1">
       <c r="A50" s="8">
-        <v>43480</v>
+        <v>43488</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F50" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="24.95" customHeight="1">
       <c r="A51" s="8">
-        <v>43481</v>
+        <v>43489</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>10</v>
@@ -1426,9 +1551,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="24.95" customHeight="1">
       <c r="A52" s="8">
-        <v>43482</v>
+        <v>43490</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>11</v>
@@ -1437,9 +1562,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="24.95" customHeight="1">
       <c r="A53" s="8">
-        <v>43483</v>
+        <v>43491</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>12</v>
@@ -1448,9 +1573,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="24.95" customHeight="1">
       <c r="A54" s="8">
-        <v>43484</v>
+        <v>43492</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>13</v>
@@ -1459,9 +1584,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="24.95" customHeight="1">
       <c r="A55" s="8">
-        <v>43485</v>
+        <v>43493</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>14</v>
@@ -1470,31 +1595,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="24.95" customHeight="1">
       <c r="A56" s="8">
-        <v>43486</v>
+        <v>43494</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="24.95" customHeight="1">
       <c r="A57" s="8">
-        <v>43487</v>
+        <v>43495</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="24.95" customHeight="1">
       <c r="A58" s="8">
-        <v>43488</v>
+        <v>43496</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>10</v>
@@ -1503,9 +1628,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="24.95" customHeight="1">
       <c r="A59" s="8">
-        <v>43489</v>
+        <v>43497</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>11</v>
@@ -1514,9 +1639,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="24.95" customHeight="1">
       <c r="A60" s="8">
-        <v>43490</v>
+        <v>43498</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>12</v>
@@ -1525,9 +1650,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="24.95" customHeight="1">
       <c r="A61" s="8">
-        <v>43491</v>
+        <v>43499</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>13</v>
@@ -1536,9 +1661,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="24.95" customHeight="1">
       <c r="A62" s="8">
-        <v>43492</v>
+        <v>43500</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>14</v>
@@ -1547,31 +1672,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="24.95" customHeight="1">
       <c r="A63" s="8">
-        <v>43493</v>
+        <v>43501</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F63" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="24.95" customHeight="1">
       <c r="A64" s="8">
-        <v>43494</v>
+        <v>43502</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F64" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="24.95" customHeight="1">
       <c r="A65" s="8">
-        <v>43495</v>
+        <v>43503</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>10</v>
@@ -1580,9 +1705,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="24.95" customHeight="1">
       <c r="A66" s="8">
-        <v>43496</v>
+        <v>43504</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>11</v>
@@ -1591,9 +1716,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="24.95" customHeight="1">
       <c r="A67" s="8">
-        <v>43497</v>
+        <v>43505</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>12</v>
@@ -1602,9 +1727,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="24.95" customHeight="1">
       <c r="A68" s="8">
-        <v>43498</v>
+        <v>43506</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>13</v>
@@ -1613,9 +1738,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="24.95" customHeight="1">
       <c r="A69" s="8">
-        <v>43499</v>
+        <v>43507</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>14</v>
@@ -1624,31 +1749,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="24.95" customHeight="1">
       <c r="A70" s="8">
-        <v>43500</v>
+        <v>43508</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="24.95" customHeight="1">
       <c r="A71" s="8">
-        <v>43501</v>
+        <v>43509</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F71" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="24.95" customHeight="1">
       <c r="A72" s="8">
-        <v>43502</v>
+        <v>43510</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>10</v>
@@ -1657,9 +1782,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="24.95" customHeight="1">
       <c r="A73" s="8">
-        <v>43503</v>
+        <v>43511</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>11</v>
@@ -1668,9 +1793,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="24.95" customHeight="1">
       <c r="A74" s="8">
-        <v>43504</v>
+        <v>43512</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>12</v>
@@ -1679,9 +1804,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="24.95" customHeight="1">
       <c r="A75" s="8">
-        <v>43505</v>
+        <v>43513</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>13</v>
@@ -1690,9 +1815,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="24.95" customHeight="1">
       <c r="A76" s="8">
-        <v>43506</v>
+        <v>43514</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>14</v>
@@ -1701,31 +1826,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="24.95" customHeight="1">
       <c r="A77" s="8">
-        <v>43507</v>
+        <v>43515</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F77" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="24.95" customHeight="1">
       <c r="A78" s="8">
-        <v>43508</v>
+        <v>43516</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F78" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="24.95" customHeight="1">
       <c r="A79" s="8">
-        <v>43509</v>
+        <v>43517</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>10</v>
@@ -1734,9 +1859,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="24.95" customHeight="1">
       <c r="A80" s="8">
-        <v>43510</v>
+        <v>43518</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>11</v>
@@ -1745,9 +1870,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="24.95" customHeight="1">
       <c r="A81" s="8">
-        <v>43511</v>
+        <v>43519</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>12</v>
@@ -1756,9 +1881,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="24.95" customHeight="1">
       <c r="A82" s="8">
-        <v>43512</v>
+        <v>43520</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>13</v>
@@ -1767,9 +1892,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="24.95" customHeight="1">
       <c r="A83" s="8">
-        <v>43513</v>
+        <v>43521</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>14</v>
@@ -1778,31 +1903,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="24.95" customHeight="1">
       <c r="A84" s="8">
-        <v>43514</v>
+        <v>43522</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F84" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="24.95" customHeight="1">
       <c r="A85" s="8">
-        <v>43515</v>
+        <v>43523</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F85" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="24.95" customHeight="1">
       <c r="A86" s="8">
-        <v>43516</v>
+        <v>43524</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>10</v>
@@ -1811,9 +1936,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="24.95" customHeight="1">
       <c r="A87" s="8">
-        <v>43517</v>
+        <v>43525</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>11</v>
@@ -1822,9 +1947,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="24.95" customHeight="1">
       <c r="A88" s="8">
-        <v>43518</v>
+        <v>43526</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>12</v>
@@ -1833,9 +1958,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="24.95" customHeight="1">
       <c r="A89" s="8">
-        <v>43519</v>
+        <v>43527</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>13</v>
@@ -1844,9 +1969,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="24.95" customHeight="1">
       <c r="A90" s="8">
-        <v>43520</v>
+        <v>43528</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>14</v>
@@ -1855,31 +1980,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="24.95" customHeight="1">
       <c r="A91" s="8">
-        <v>43521</v>
+        <v>43529</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F91" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="24.95" customHeight="1">
       <c r="A92" s="8">
-        <v>43522</v>
+        <v>43530</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F92" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="24.95" customHeight="1">
       <c r="A93" s="8">
-        <v>43523</v>
+        <v>43531</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>10</v>
@@ -1888,9 +2013,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="24.95" customHeight="1">
       <c r="A94" s="8">
-        <v>43524</v>
+        <v>43532</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>11</v>
@@ -1899,9 +2024,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="24.95" customHeight="1">
       <c r="A95" s="8">
-        <v>43525</v>
+        <v>43533</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>12</v>
@@ -1910,9 +2035,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="24.95" customHeight="1">
       <c r="A96" s="8">
-        <v>43526</v>
+        <v>43534</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>13</v>
@@ -1921,9 +2046,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="24.95" customHeight="1">
       <c r="A97" s="8">
-        <v>43527</v>
+        <v>43535</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>14</v>
@@ -1932,31 +2057,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="24.95" customHeight="1">
       <c r="A98" s="8">
-        <v>43528</v>
+        <v>43536</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F98" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="24.95" customHeight="1">
       <c r="A99" s="8">
-        <v>43529</v>
+        <v>43537</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F99" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="24.95" customHeight="1">
       <c r="A100" s="8">
-        <v>43530</v>
+        <v>43538</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>10</v>
@@ -1965,9 +2090,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="24.95" customHeight="1">
       <c r="A101" s="8">
-        <v>43531</v>
+        <v>43539</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>11</v>
@@ -1976,9 +2101,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="24.95" customHeight="1">
       <c r="A102" s="8">
-        <v>43532</v>
+        <v>43540</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>12</v>
@@ -1987,9 +2112,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="24.95" customHeight="1">
       <c r="A103" s="8">
-        <v>43533</v>
+        <v>43541</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>13</v>
@@ -1998,9 +2123,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="24.95" customHeight="1">
       <c r="A104" s="8">
-        <v>43534</v>
+        <v>43542</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>14</v>
@@ -2009,31 +2134,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="24.95" customHeight="1">
       <c r="A105" s="8">
-        <v>43535</v>
+        <v>43543</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F105" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="24.95" customHeight="1">
       <c r="A106" s="8">
-        <v>43536</v>
+        <v>43544</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="24.95" customHeight="1">
       <c r="A107" s="8">
-        <v>43537</v>
+        <v>43545</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>10</v>
@@ -2042,9 +2167,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="24.95" customHeight="1">
       <c r="A108" s="8">
-        <v>43538</v>
+        <v>43546</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>11</v>
@@ -2053,9 +2178,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="24.95" customHeight="1">
       <c r="A109" s="8">
-        <v>43539</v>
+        <v>43547</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>12</v>
@@ -2064,9 +2189,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="24.95" customHeight="1">
       <c r="A110" s="8">
-        <v>43540</v>
+        <v>43548</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>13</v>
@@ -2075,9 +2200,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="24.95" customHeight="1">
       <c r="A111" s="8">
-        <v>43541</v>
+        <v>43549</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>14</v>
@@ -2086,31 +2211,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="24.95" customHeight="1">
       <c r="A112" s="8">
-        <v>43542</v>
+        <v>43550</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F112" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="24.95" customHeight="1">
       <c r="A113" s="8">
-        <v>43543</v>
+        <v>43551</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F113" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="24.95" customHeight="1">
       <c r="A114" s="8">
-        <v>43544</v>
+        <v>43552</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>10</v>
@@ -2119,9 +2244,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="24.95" customHeight="1">
       <c r="A115" s="8">
-        <v>43545</v>
+        <v>43553</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>11</v>
@@ -2130,9 +2255,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="24.95" customHeight="1">
       <c r="A116" s="8">
-        <v>43546</v>
+        <v>43554</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>12</v>
@@ -2141,9 +2266,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="24.95" customHeight="1">
       <c r="A117" s="8">
-        <v>43547</v>
+        <v>43555</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>13</v>
@@ -2152,9 +2277,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="24.95" customHeight="1">
       <c r="A118" s="8">
-        <v>43548</v>
+        <v>43556</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>14</v>
@@ -2163,31 +2288,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="24.95" customHeight="1">
       <c r="A119" s="8">
-        <v>43549</v>
+        <v>43557</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F119" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="24.95" customHeight="1">
       <c r="A120" s="8">
-        <v>43550</v>
+        <v>43558</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F120" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="24.95" customHeight="1">
       <c r="A121" s="8">
-        <v>43551</v>
+        <v>43559</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>10</v>
@@ -2196,9 +2321,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="24.95" customHeight="1">
       <c r="A122" s="8">
-        <v>43552</v>
+        <v>43560</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>11</v>
@@ -2207,9 +2332,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="24.95" customHeight="1">
       <c r="A123" s="8">
-        <v>43553</v>
+        <v>43561</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>12</v>
@@ -2218,9 +2343,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="24.95" customHeight="1">
       <c r="A124" s="8">
-        <v>43554</v>
+        <v>43562</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>13</v>
@@ -2229,9 +2354,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="24.95" customHeight="1">
       <c r="A125" s="8">
-        <v>43555</v>
+        <v>43563</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>14</v>
@@ -2240,31 +2365,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="24.95" customHeight="1">
       <c r="A126" s="8">
-        <v>43556</v>
+        <v>43564</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F126" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="24.95" customHeight="1">
       <c r="A127" s="8">
-        <v>43557</v>
+        <v>43565</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F127" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="24.95" customHeight="1">
       <c r="A128" s="8">
-        <v>43558</v>
+        <v>43566</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>10</v>
@@ -2273,9 +2398,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="24.95" customHeight="1">
       <c r="A129" s="8">
-        <v>43559</v>
+        <v>43567</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>11</v>
@@ -2284,9 +2409,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="24.95" customHeight="1">
       <c r="A130" s="8">
-        <v>43560</v>
+        <v>43568</v>
       </c>
       <c r="B130" s="9" t="s">
         <v>12</v>
@@ -2295,487 +2420,402 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="24.95" customHeight="1">
       <c r="A131" s="8">
-        <v>43561</v>
+        <v>43569</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F131" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:6" ht="24.95" customHeight="1">
       <c r="A132" s="8">
-        <v>43562</v>
+        <v>43570</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F132" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:6" ht="24.95" customHeight="1">
       <c r="A133" s="8">
-        <v>43563</v>
+        <v>43571</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F133" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="24.95" customHeight="1">
       <c r="A134" s="8">
-        <v>43564</v>
+        <v>43572</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F134" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="24.95" customHeight="1">
       <c r="A135" s="8">
-        <v>43565</v>
+        <v>43573</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F135" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:6" ht="24.95" customHeight="1">
       <c r="A136" s="8">
-        <v>43566</v>
+        <v>43574</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F136" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:6" ht="24.95" customHeight="1">
       <c r="A137" s="8">
-        <v>43567</v>
+        <v>43575</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F137" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:6" ht="24.95" customHeight="1">
       <c r="A138" s="8">
-        <v>43568</v>
+        <v>43576</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F138" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:6" ht="24.95" customHeight="1">
       <c r="A139" s="8">
-        <v>43569</v>
+        <v>43577</v>
       </c>
       <c r="B139" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="24.95" customHeight="1">
       <c r="A140" s="8">
-        <v>43570</v>
+        <v>43578</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="24.95" customHeight="1">
       <c r="A141" s="8">
-        <v>43571</v>
+        <v>43579</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="24.95" customHeight="1">
       <c r="A142" s="8">
-        <v>43572</v>
+        <v>43580</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="24.95" customHeight="1">
       <c r="A143" s="8">
-        <v>43573</v>
+        <v>43581</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="24.95" customHeight="1">
       <c r="A144" s="8">
-        <v>43574</v>
+        <v>43582</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" ht="24.95" customHeight="1">
       <c r="A145" s="8">
-        <v>43575</v>
+        <v>43583</v>
       </c>
       <c r="B145" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" ht="24.95" customHeight="1">
       <c r="A146" s="8">
-        <v>43576</v>
+        <v>43584</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" ht="24.95" customHeight="1">
       <c r="A147" s="8">
-        <v>43577</v>
+        <v>43585</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="24.95" customHeight="1">
       <c r="A148" s="8">
-        <v>43578</v>
+        <v>43586</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="24.95" customHeight="1">
       <c r="A149" s="8">
-        <v>43579</v>
+        <v>43587</v>
       </c>
       <c r="B149" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" ht="24.95" customHeight="1">
       <c r="A150" s="8">
-        <v>43580</v>
+        <v>43588</v>
       </c>
       <c r="B150" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" ht="24.95" customHeight="1">
       <c r="A151" s="8">
-        <v>43581</v>
+        <v>43589</v>
       </c>
       <c r="B151" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" ht="24.95" customHeight="1">
       <c r="A152" s="8">
-        <v>43582</v>
+        <v>43590</v>
       </c>
       <c r="B152" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" ht="24.95" customHeight="1">
       <c r="A153" s="8">
-        <v>43583</v>
+        <v>43591</v>
       </c>
       <c r="B153" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" ht="24.95" customHeight="1">
       <c r="A154" s="8">
-        <v>43584</v>
+        <v>43592</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="24.95" customHeight="1">
       <c r="A155" s="8">
-        <v>43585</v>
+        <v>43593</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="24.95" customHeight="1">
       <c r="A156" s="8">
-        <v>43586</v>
+        <v>43594</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" ht="24.95" customHeight="1">
       <c r="A157" s="8">
-        <v>43587</v>
+        <v>43595</v>
       </c>
       <c r="B157" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" ht="24.95" customHeight="1">
       <c r="A158" s="8">
-        <v>43588</v>
+        <v>43596</v>
       </c>
       <c r="B158" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" ht="24.95" customHeight="1">
       <c r="A159" s="8">
-        <v>43589</v>
+        <v>43597</v>
       </c>
       <c r="B159" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" ht="24.95" customHeight="1">
       <c r="A160" s="8">
-        <v>43590</v>
+        <v>43598</v>
       </c>
       <c r="B160" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" ht="24.95" customHeight="1">
       <c r="A161" s="8">
-        <v>43591</v>
+        <v>43599</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="24.95" customHeight="1">
       <c r="A162" s="8">
-        <v>43592</v>
+        <v>43600</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="24.95" customHeight="1">
       <c r="A163" s="8">
-        <v>43593</v>
+        <v>43601</v>
       </c>
       <c r="B163" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" ht="24.95" customHeight="1">
       <c r="A164" s="8">
-        <v>43594</v>
+        <v>43602</v>
       </c>
       <c r="B164" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" ht="24.95" customHeight="1">
       <c r="A165" s="8">
-        <v>43595</v>
+        <v>43603</v>
       </c>
       <c r="B165" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" ht="24.95" customHeight="1">
       <c r="A166" s="8">
-        <v>43596</v>
+        <v>43604</v>
       </c>
       <c r="B166" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" ht="24.95" customHeight="1">
       <c r="A167" s="8">
-        <v>43597</v>
+        <v>43605</v>
       </c>
       <c r="B167" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" ht="24.95" customHeight="1">
       <c r="A168" s="8">
-        <v>43598</v>
+        <v>43606</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="24.95" customHeight="1">
       <c r="A169" s="8">
-        <v>43599</v>
+        <v>43607</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="24.95" customHeight="1">
       <c r="A170" s="8">
-        <v>43600</v>
+        <v>43608</v>
       </c>
       <c r="B170" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" ht="24.95" customHeight="1">
       <c r="A171" s="8">
-        <v>43601</v>
+        <v>43609</v>
       </c>
       <c r="B171" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" ht="24.95" customHeight="1">
       <c r="A172" s="8">
-        <v>43602</v>
+        <v>43610</v>
       </c>
       <c r="B172" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" ht="24.95" customHeight="1">
       <c r="A173" s="8">
-        <v>43603</v>
+        <v>43611</v>
       </c>
       <c r="B173" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" ht="24.95" customHeight="1">
       <c r="A174" s="8">
-        <v>43604</v>
+        <v>43612</v>
       </c>
       <c r="B174" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" ht="24.95" customHeight="1">
       <c r="A175" s="8">
-        <v>43605</v>
+        <v>43613</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="24.95" customHeight="1">
       <c r="A176" s="8">
-        <v>43606</v>
+        <v>43614</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="24.95" customHeight="1">
       <c r="A177" s="8">
-        <v>43607</v>
+        <v>43615</v>
       </c>
       <c r="B177" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" ht="24.95" customHeight="1">
       <c r="A178" s="8">
-        <v>43608</v>
+        <v>43616</v>
       </c>
       <c r="B178" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" ht="24.95" customHeight="1">
       <c r="A179" s="8">
-        <v>43609</v>
+        <v>43617</v>
       </c>
       <c r="B179" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="8">
-        <v>43610</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="8">
-        <v>43611</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="8">
-        <v>43612</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="8">
-        <v>43613</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="8">
-        <v>43614</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="8">
-        <v>43615</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="8">
-        <v>43616</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="8">
-        <v>43617</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C40:E40"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
